--- a/database/booking_sheet.xlsx
+++ b/database/booking_sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon\www\DATN\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB699F53-8312-4E0D-A10A-BC9BF6089343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,17 +261,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,54 +551,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="63.6" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="2:22" ht="64.5" x14ac:dyDescent="0.95">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -661,21 +666,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -683,32 +688,32 @@
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="U4" s="10" t="s">
+      <c r="O4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="U4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="O5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -716,42 +721,42 @@
         <v>8</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="U6" s="7"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="R8" s="10" t="s">
+      <c r="F8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="R8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -759,31 +764,31 @@
         <v>9</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -791,17 +796,17 @@
         <v>10</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -809,32 +814,32 @@
         <v>11</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="G12" s="9"/>
-      <c r="J12" s="10" t="s">
+      <c r="G12" s="7"/>
+      <c r="J12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="G13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -843,51 +848,51 @@
         <v>14</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="G14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10" t="s">
+      <c r="G14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="7"/>
       <c r="I15" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10" t="s">
+      <c r="J15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="G16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
@@ -896,33 +901,33 @@
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10" t="s">
+      <c r="G17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="10" t="s">
+      <c r="R17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="G18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="T18" s="9"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="T18" s="7"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
@@ -933,42 +938,42 @@
       <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="P19" s="10" t="s">
+      <c r="G19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="P19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="T19" s="9"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="R19" s="7"/>
+      <c r="T19" s="7"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="G20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
@@ -976,25 +981,25 @@
       <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1003,30 +1008,30 @@
       <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="T24" s="9"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="R25" s="10" t="s">
+      <c r="K25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="R25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="T25" s="7"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
@@ -1035,95 +1040,95 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="M26" s="10" t="s">
+      <c r="K26" s="7"/>
+      <c r="M26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="P26" s="7"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>25</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="T27" s="9"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>26</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="H28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="T28" s="9"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>27</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="H29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="T29" s="9"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>28</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="9"/>
-      <c r="J30" s="10" t="s">
+      <c r="H30" s="7"/>
+      <c r="J30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="T30" s="9"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="K30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="P31" s="10" t="s">
+      <c r="H31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="P31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="H32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1134,52 +1139,52 @@
       <c r="E33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="H34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="U34" s="10" t="s">
+      <c r="H34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="U34" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="H35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="H36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="M36" s="10" t="s">
+      <c r="H36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="M36" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>5</v>
       </c>
@@ -1187,26 +1192,26 @@
       <c r="D37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="N37" s="10" t="s">
+      <c r="H37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="N37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="H38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="U38" s="9"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>7</v>
       </c>
@@ -1214,13 +1219,13 @@
       <c r="E39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="U39" s="9"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>8</v>
       </c>
@@ -1228,36 +1233,36 @@
         <v>20</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="H40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="U40" s="9"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>9</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="H41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="N41" s="10" t="s">
+      <c r="H41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="N41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U41" s="9"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>10</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="H42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="U42" s="9"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="H42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>11</v>
       </c>
@@ -1265,162 +1270,162 @@
         <v>22</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="H43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="N43" s="10" t="s">
+      <c r="H43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="N43" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>12</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>13</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>14</v>
       </c>
       <c r="C46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="10" t="s">
+      <c r="K46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>15</v>
       </c>
       <c r="C47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="K47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="U47" s="10" t="s">
+      <c r="K47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="U47" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>16</v>
       </c>
       <c r="C48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="K48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>17</v>
       </c>
       <c r="C49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="K49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>18</v>
       </c>
       <c r="C50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="K50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>19</v>
       </c>
       <c r="C51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="K51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>20</v>
       </c>
       <c r="C52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>21</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>22</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>23</v>
       </c>
       <c r="C55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="G55" s="13"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G55" s="11"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>24</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="G56" s="13"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G56" s="11"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>25</v>
       </c>
@@ -1428,63 +1433,63 @@
       <c r="E57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G57" s="11"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G58" s="11"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>27</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G59" s="11"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>28</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G60" s="11"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>29</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G61" s="11"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>30</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="N62" s="10" t="s">
+      <c r="G62" s="11"/>
+      <c r="N62" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>31</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="10" t="s">
+      <c r="O63" s="8" t="s">
         <v>43</v>
       </c>
     </row>
